--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.8905125301442052</v>
+        <v>1.003756253906252</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.218009596270675</v>
+        <v>1.287693099940079</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.4641323501900163</v>
+        <v>1.224010362214401</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.5544720893820188</v>
+        <v>0.5167526861706184</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.7953247379026918</v>
+        <v>0.9718821796794952</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.173294700162031</v>
+        <v>1.187829657075357</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.205864328335093</v>
+        <v>1.00065194548169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.180518841971723</v>
+        <v>1.071158385438342</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.508698476056081</v>
+        <v>0.912403143334517</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9276272455014611</v>
+        <v>0.9553801317191413</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.129954091786578</v>
+        <v>1.066801818459595</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.265990289415564</v>
+        <v>1.190496724073231</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.715659375508571</v>
+        <v>1.154811676806311</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.642047742738506</v>
+        <v>1.5464392869869</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.470010055742232</v>
+        <v>1.247870081683522</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.66194179127146</v>
+        <v>1.701952652941463</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.616008876909447</v>
+        <v>1.637918813512695</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.609733807897773</v>
+        <v>1.580693894992691</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.590469215865564</v>
+        <v>1.610567777412109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.641178243814534</v>
+        <v>1.646565058924154</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.794850390332114</v>
+        <v>1.636439239090515</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.233734107395001</v>
+        <v>1.619750436871126</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.9628637208823232</v>
+        <v>1.669486277487398</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-3.450801915528212</v>
+        <v>0.2954364073068261</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.307664622184548</v>
+        <v>0.8326407735962826</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.1757848091566316</v>
+        <v>-1.564297238929013</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>9.515221393159411</v>
+        <v>0.1548119563699935</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>6.15369818068785</v>
+        <v>5.937304773291885</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.641402330987509</v>
+        <v>2.150399152794202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.2922548206748199</v>
+        <v>-0.2621830498131694</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.658286804611153</v>
+        <v>1.878976297039481</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.1450123585129193</v>
+        <v>0.0512320434504332</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.660123065973873</v>
+        <v>0.2660756331863467</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6213128948874713</v>
+        <v>0.5998844096825495</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.5837874231427564</v>
+        <v>0.1733734969819434</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>-0.3623658873974311</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.003756253906252</v>
+        <v>0.1825419310453658</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.287693099940079</v>
+        <v>-0.009261555895478946</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>1.224010362214401</v>
+        <v>0.1145211022186787</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.5167526861706184</v>
+        <v>-1.404263945418582</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.9718821796794952</v>
+        <v>-0.807808220045203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.187829657075357</v>
+        <v>1.692932643509848</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.00065194548169</v>
+        <v>0.6262577107155831</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.071158385438342</v>
+        <v>1.020829760720643</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.912403143334517</v>
+        <v>1.148272834981245</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9553801317191413</v>
+        <v>0.6772121200332215</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.066801818459595</v>
+        <v>1.258913537332895</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.190496724073231</v>
+        <v>1.019715257608911</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.154811676806311</v>
+        <v>0.9536145745415947</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.5464392869869</v>
+        <v>2.173959184500385</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.247870081683522</v>
+        <v>1.566646323486043</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.701952652941463</v>
+        <v>1.707434489469994</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.637918813512695</v>
+        <v>1.30258347990615</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.580693894992691</v>
+        <v>1.456988786619839</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.610567777412109</v>
+        <v>1.842797144428188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.646565058924154</v>
+        <v>1.241332692055597</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.636439239090515</v>
+        <v>1.58004210678635</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.619750436871126</v>
+        <v>1.592885137608979</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.669486277487398</v>
+        <v>1.604795846351514</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.2954364073068261</v>
+        <v>-2.015335584265165</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.8326407735962826</v>
+        <v>-1.215549235925828</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.564297238929013</v>
+        <v>-3.579597300369253</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.1548119563699935</v>
+        <v>-1.403103901755631</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>5.937304773291885</v>
+        <v>4.461954539041502</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.150399152794202</v>
+        <v>0.7797949948739058</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.2621830498131694</v>
+        <v>-1.305206755692701</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.878976297039481</v>
+        <v>0.5821000732047832</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.0512320434504332</v>
+        <v>0.0845726262934221</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.2660756331863467</v>
+        <v>0.1341520870597357</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5998844096825495</v>
+        <v>0.9724700385226326</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.1733734969819434</v>
+        <v>0.6236501628417823</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-3.579597300369253</v>
+        <v>-5.665308402785496</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-1.403103901755631</v>
+        <v>-4.458023117238197</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.461954539041502</v>
+        <v>3.55216262984841</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.7797949948739058</v>
+        <v>-0.553429447819942</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.305206755692701</v>
+        <v>-1.174920835225968</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.5821000732047832</v>
+        <v>0.1140263184959966</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.0845726262934221</v>
+        <v>0.02017133142708794</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.1341520870597357</v>
+        <v>-0.3342090768664097</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.9724700385226326</v>
+        <v>0.7917104405398501</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.6236501628417823</v>
+        <v>-0.1189552196680044</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>-0.3623658873974311</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.1825419310453658</v>
+        <v>0.1825419310453436</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.692932643509848</v>
+        <v>1.692932643509826</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.020829760720643</v>
+        <v>1.020829760720687</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -514,7 +511,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.258913537332895</v>
+        <v>1.258913537332873</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.019715257608911</v>
+        <v>1.019715257608933</v>
       </c>
       <c r="D8">
         <v>2015</v>
@@ -542,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>2.173959184500385</v>
+        <v>2.173959184500363</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.566646323486043</v>
+        <v>1.566646323486065</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.707434489469994</v>
+        <v>1.707434489470039</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.456988786619839</v>
+        <v>1.456988786619817</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.842797144428188</v>
+        <v>1.84279714442821</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.58004210678635</v>
+        <v>1.580042106786372</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +613,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.604795846351514</v>
+        <v>1.604795846351492</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-1.215549235925828</v>
+        <v>-1.215549235925817</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-5.665308402785496</v>
+        <v>-5.665308402785508</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-4.458023117238197</v>
+        <v>-4.458023117238186</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +664,7 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.553429447819942</v>
+        <v>-0.5534294478199198</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.174920835225968</v>
+        <v>-1.17492083522599</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.1140263184959966</v>
+        <v>0.1140263184959744</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.02017133142708794</v>
+        <v>0.02017133142706573</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.3342090768664097</v>
+        <v>-0.3342090768663986</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +715,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.1189552196680044</v>
+        <v>-0.1189552196680155</v>
       </c>
     </row>
   </sheetData>
